--- a/TestOnTankLibrary/Data/Location.xlsx
+++ b/TestOnTankLibrary/Data/Location.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -51,6 +51,28 @@
     </r>
   </si>
   <si>
+    <t>Home.WWI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>http://www.tanklib.franklidev.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
@@ -70,6 +92,39 @@
   </si>
   <si>
     <t>.fa.fa-plus-square</t>
+  </si>
+  <si>
+    <t>Home.Group.WWI</t>
+  </si>
+  <si>
+    <t>LinkText</t>
+  </si>
+  <si>
+    <t>World War I</t>
+  </si>
+  <si>
+    <t>Home.Group.WWII</t>
+  </si>
+  <si>
+    <t>World War II</t>
+  </si>
+  <si>
+    <t>Home.Group.Interwar</t>
+  </si>
+  <si>
+    <t>Interwar</t>
+  </si>
+  <si>
+    <t>Home.Group.Modern</t>
+  </si>
+  <si>
+    <t>Modern</t>
+  </si>
+  <si>
+    <t>Home.List.Stages</t>
+  </si>
+  <si>
+    <t>#tanklist tr.clickable-row td:nth-child(3)</t>
   </si>
   <si>
     <t>Expected</t>
@@ -91,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -125,13 +180,18 @@
       <name val="Times"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,12 +236,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="21"/>
+        <fgColor indexed="19"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -246,6 +318,61 @@
         <color indexed="14"/>
       </top>
       <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
         <color indexed="13"/>
       </bottom>
       <diagonal/>
@@ -298,13 +425,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="21"/>
+      </left>
+      <right style="thin">
+        <color indexed="21"/>
+      </right>
+      <top style="thin">
+        <color indexed="21"/>
       </top>
       <bottom style="thin">
         <color indexed="14"/>
@@ -313,16 +455,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="21"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="21"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="21"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -331,178 +473,103 @@
         <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="21"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="21"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="16"/>
+        <color indexed="21"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="21"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="21"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="21"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
       </right>
       <top style="thin">
         <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="16"/>
+        <color indexed="21"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="21"/>
       </right>
       <top style="thin">
         <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="16"/>
+        <color indexed="21"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="19"/>
+        <color indexed="21"/>
       </left>
       <right style="thin">
-        <color indexed="19"/>
+        <color indexed="21"/>
       </right>
       <top style="thin">
-        <color indexed="19"/>
+        <color indexed="21"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="21"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="19"/>
+        <color indexed="21"/>
       </left>
       <right style="thin">
-        <color indexed="19"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="19"/>
+        <color indexed="21"/>
       </top>
       <bottom style="thin">
-        <color indexed="20"/>
+        <color indexed="21"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="19"/>
+        <color indexed="21"/>
       </right>
       <top style="thin">
-        <color indexed="20"/>
+        <color indexed="21"/>
       </top>
       <bottom style="thin">
-        <color indexed="19"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="19"/>
-      </left>
-      <right style="thin">
-        <color indexed="19"/>
-      </right>
-      <top style="thin">
-        <color indexed="20"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="19"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="19"/>
-      </left>
-      <right style="thin">
-        <color indexed="20"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="19"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="20"/>
-      </left>
-      <right style="thin">
-        <color indexed="19"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="19"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="19"/>
-      </left>
-      <right style="thin">
-        <color indexed="19"/>
-      </right>
-      <top style="thin">
-        <color indexed="19"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="19"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="19"/>
-      </left>
-      <right style="thin">
-        <color indexed="20"/>
-      </right>
-      <top style="thin">
-        <color indexed="19"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="19"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="20"/>
-      </left>
-      <right style="thin">
-        <color indexed="19"/>
-      </right>
-      <top style="thin">
-        <color indexed="19"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="19"/>
+        <color indexed="21"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,7 +579,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -561,67 +628,70 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -650,6 +720,8 @@
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffcacaca"/>
+      <rgbColor rgb="ffe6e6e6"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
@@ -1760,7 +1832,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1771,12 +1843,12 @@
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1787,7 +1859,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1807,7 +1879,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1841,9 +1913,21 @@
       <c r="D2" s="14"/>
       <c r="E2" s="15"/>
     </row>
+    <row r="3" ht="16.55" customHeight="1">
+      <c r="A3" t="s" s="16">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="17">
+        <v>10</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display="http://www.tanklib.franklidev.com/"/>
+    <hyperlink ref="B3" r:id="rId2" location="" tooltip="" display="http://www.tanklib.franklidev.com/"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -1855,56 +1939,123 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="11.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="16.3516" style="16" customWidth="1"/>
-    <col min="3" max="3" width="27.0938" style="16" customWidth="1"/>
-    <col min="4" max="7" width="16.3516" style="16" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="16" customWidth="1"/>
+    <col min="1" max="1" width="19.1484" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="21" customWidth="1"/>
+    <col min="3" max="3" width="41.8828" style="21" customWidth="1"/>
+    <col min="4" max="7" width="16.3516" style="21" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="17">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s" s="17">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s" s="17">
+      <c r="A1" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" t="s" s="22">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s" s="22">
+        <v>14</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="19">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s" s="20">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s" s="21">
+      <c r="A2" t="s" s="24">
         <v>15</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="B2" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s" s="24">
+        <v>17</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="A3" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="22">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s" s="22">
+        <v>20</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" t="s" s="24">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="24">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s" s="24">
+        <v>22</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" ht="20.25" customHeight="1">
+      <c r="A5" t="s" s="22">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s" s="22">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="22">
+        <v>24</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" ht="20.25" customHeight="1">
+      <c r="A6" t="s" s="24">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s" s="24">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s" s="24">
+        <v>26</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" ht="20.25" customHeight="1">
+      <c r="A7" t="s" s="22">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s" s="22">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s" s="22">
+        <v>28</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -1936,81 +2087,81 @@
   <sheetData>
     <row r="1" ht="14.35" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s" s="27">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
     </row>
     <row r="2" ht="14.7" customHeight="1">
-      <c r="A2" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s" s="29">
-        <v>19</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="A2" t="s" s="29">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s" s="30">
+        <v>32</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="14.35" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" ht="14.05" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" ht="14.05" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" ht="14.05" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" ht="14.05" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" ht="14.05" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" ht="14.05" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" ht="14.05" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/TestOnTankLibrary/Data/Location.xlsx
+++ b/TestOnTankLibrary/Data/Location.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>#tanklist tr.clickable-row td:nth-child(3)</t>
+  </si>
+  <si>
+    <t>Home.Group.All</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
   <si>
     <t>Expected</t>
@@ -1848,7 +1854,7 @@
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1859,7 +1865,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1939,7 +1945,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2056,6 +2062,21 @@
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
+    </row>
+    <row r="8" ht="20.25" customHeight="1">
+      <c r="A8" t="s" s="24">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s" s="24">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s" s="24">
+        <v>30</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -2090,7 +2111,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s" s="27">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -2098,10 +2119,10 @@
     </row>
     <row r="2" ht="14.7" customHeight="1">
       <c r="A2" t="s" s="29">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s" s="30">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32"/>

--- a/TestOnTankLibrary/Data/Location.xlsx
+++ b/TestOnTankLibrary/Data/Location.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -131,6 +131,39 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Home.List.All.Data2.Name</t>
+  </si>
+  <si>
+    <t>XPath</t>
+  </si>
+  <si>
+    <t>//*[@id='tanklist']/tbody/tr[2]/td[2]</t>
+  </si>
+  <si>
+    <t>Home.List.All.Data2.Stage</t>
+  </si>
+  <si>
+    <t>//*[@id='tanklist']/tbody/tr[2]/td[3]</t>
+  </si>
+  <si>
+    <t>Home.List.All.Data3.Name</t>
+  </si>
+  <si>
+    <t>//*[@id='tanklist']/tbody/tr[3]/td[2]</t>
+  </si>
+  <si>
+    <t>Home.List.All.Data3.Type</t>
+  </si>
+  <si>
+    <t>//*[@id='tanklist']/tbody/tr[3]/td[4]</t>
+  </si>
+  <si>
+    <t>Home.Desc.Name</t>
+  </si>
+  <si>
+    <t>//*[@id='imganddesc_div']/div/h4</t>
   </si>
   <si>
     <t>Expected</t>
@@ -1854,7 +1887,7 @@
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1865,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1945,13 +1978,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="11.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.1484" style="21" customWidth="1"/>
+    <col min="1" max="1" width="25.5859" style="21" customWidth="1"/>
     <col min="2" max="2" width="16.3516" style="21" customWidth="1"/>
     <col min="3" max="3" width="41.8828" style="21" customWidth="1"/>
     <col min="4" max="7" width="16.3516" style="21" customWidth="1"/>
@@ -2077,6 +2110,81 @@
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
+    </row>
+    <row r="9" ht="20.25" customHeight="1">
+      <c r="A9" t="s" s="22">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s" s="22">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s" s="22">
+        <v>33</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" ht="20.25" customHeight="1">
+      <c r="A10" t="s" s="24">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s" s="24">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s" s="24">
+        <v>35</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" ht="20.25" customHeight="1">
+      <c r="A11" t="s" s="22">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s" s="22">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s" s="22">
+        <v>37</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" ht="20.25" customHeight="1">
+      <c r="A12" t="s" s="24">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s" s="24">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s" s="24">
+        <v>39</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" ht="20.25" customHeight="1">
+      <c r="A13" t="s" s="22">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s" s="22">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s" s="22">
+        <v>41</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -2111,7 +2219,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s" s="27">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -2119,10 +2227,10 @@
     </row>
     <row r="2" ht="14.7" customHeight="1">
       <c r="A2" t="s" s="29">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="30">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32"/>

--- a/TestOnTankLibrary/Data/Location.xlsx
+++ b/TestOnTankLibrary/Data/Location.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>//*[@id='imganddesc_div']/div/h4</t>
+  </si>
+  <si>
+    <t>Detail.Name</t>
+  </si>
+  <si>
+    <t>//dt[text()='Name']/following-sibling::dd[1]</t>
   </si>
   <si>
     <t>Expected</t>
@@ -1887,7 +1893,7 @@
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1898,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1978,7 +1984,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2185,6 +2191,21 @@
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
+    </row>
+    <row r="14" ht="20.25" customHeight="1">
+      <c r="A14" t="s" s="24">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s" s="24">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s" s="24">
+        <v>43</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -2219,7 +2240,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s" s="27">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -2227,10 +2248,10 @@
     </row>
     <row r="2" ht="14.7" customHeight="1">
       <c r="A2" t="s" s="29">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="30">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32"/>

--- a/TestOnTankLibrary/Data/Location.xlsx
+++ b/TestOnTankLibrary/Data/Location.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -133,31 +133,25 @@
     <t>All</t>
   </si>
   <si>
-    <t>Home.List.All.Data2.Name</t>
+    <t>Home.List.All.Data.Name</t>
   </si>
   <si>
     <t>XPath</t>
   </si>
   <si>
-    <t>//*[@id='tanklist']/tbody/tr[2]/td[2]</t>
-  </si>
-  <si>
-    <t>Home.List.All.Data2.Stage</t>
-  </si>
-  <si>
-    <t>//*[@id='tanklist']/tbody/tr[2]/td[3]</t>
-  </si>
-  <si>
-    <t>Home.List.All.Data3.Name</t>
-  </si>
-  <si>
-    <t>//*[@id='tanklist']/tbody/tr[3]/td[2]</t>
-  </si>
-  <si>
-    <t>Home.List.All.Data3.Type</t>
-  </si>
-  <si>
-    <t>//*[@id='tanklist']/tbody/tr[3]/td[4]</t>
+    <t>//*[@id='tanklist']/tbody/tr[{0}]/td[2]</t>
+  </si>
+  <si>
+    <t>Home.List.All.Data.Stage</t>
+  </si>
+  <si>
+    <t>//*[@id='tanklist']/tbody/tr[{0}]/td[3]</t>
+  </si>
+  <si>
+    <t>Home.List.All.Data.Type</t>
+  </si>
+  <si>
+    <t>//*[@id='tanklist']/tbody/tr[{0}]/td[4]</t>
   </si>
   <si>
     <t>Home.Desc.Name</t>
@@ -170,6 +164,27 @@
   </si>
   <si>
     <t>//dt[text()='Name']/following-sibling::dd[1]</t>
+  </si>
+  <si>
+    <t>Home.List.All.Data.Btn.Edit</t>
+  </si>
+  <si>
+    <t>//*[@id='tanklist']/tbody/tr[{0}]/td[1]//i[@class='fa fa-edit']</t>
+  </si>
+  <si>
+    <t>Home.List.All.Data.Btn.Delete</t>
+  </si>
+  <si>
+    <t>//*[@id='tanklist']/tbody/tr[{0}]/td[1]//i[@class='fa fa-trash']</t>
+  </si>
+  <si>
+    <t>Edit.Name</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>Expected</t>
@@ -1893,7 +1908,7 @@
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1904,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1984,7 +1999,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1992,7 +2007,7 @@
   <cols>
     <col min="1" max="1" width="25.5859" style="21" customWidth="1"/>
     <col min="2" max="2" width="16.3516" style="21" customWidth="1"/>
-    <col min="3" max="3" width="41.8828" style="21" customWidth="1"/>
+    <col min="3" max="3" width="53.5703" style="21" customWidth="1"/>
     <col min="4" max="7" width="16.3516" style="21" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="21" customWidth="1"/>
   </cols>
@@ -2206,6 +2221,36 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
+    </row>
+    <row r="15" ht="20.25" customHeight="1">
+      <c r="A15" t="s" s="22">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s" s="22">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s" s="22">
+        <v>45</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" ht="20.25" customHeight="1">
+      <c r="A16" t="s" s="24">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s" s="24">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s" s="24">
+        <v>48</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -2240,7 +2285,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s" s="27">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -2248,10 +2293,10 @@
     </row>
     <row r="2" ht="14.7" customHeight="1">
       <c r="A2" t="s" s="29">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s" s="30">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32"/>

--- a/TestOnTankLibrary/Data/Location.xlsx
+++ b/TestOnTankLibrary/Data/Location.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Delete.Name</t>
+  </si>
+  <si>
+    <t>//form/div/h4</t>
   </si>
   <si>
     <t>Expected</t>
@@ -1908,7 +1914,7 @@
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1919,7 +1925,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1999,7 +2005,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2251,6 +2257,21 @@
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
+    </row>
+    <row r="17" ht="20.25" customHeight="1">
+      <c r="A17" t="s" s="22">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s" s="22">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="22">
+        <v>50</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -2285,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s" s="27">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -2293,10 +2314,10 @@
     </row>
     <row r="2" ht="14.7" customHeight="1">
       <c r="A2" t="s" s="29">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s" s="30">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32"/>

--- a/TestOnTankLibrary/Data/Location.xlsx
+++ b/TestOnTankLibrary/Data/Location.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -61,15 +61,30 @@
         <color indexed="11"/>
         <rFont val="Times"/>
       </rPr>
-      <t>http://www.tanklib.franklidev.com/</t>
+      <t>http://www.tanklib.franklidev.com/1</t>
+    </r>
+  </si>
+  <si>
+    <t>Home.Page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>http://www.tanklib.franklidev.com/Page</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="18"/>
+        <rFont val="Times"/>
       </rPr>
-      <t>1</t>
+      <t>{0}?curindex=0</t>
     </r>
   </si>
   <si>
@@ -191,6 +206,24 @@
   </si>
   <si>
     <t>//form/div/h4</t>
+  </si>
+  <si>
+    <t>Home.List.Page.Enabled</t>
+  </si>
+  <si>
+    <t>//a[text()='{0}' and contains(@class, 'btn btn-default')]</t>
+  </si>
+  <si>
+    <t>Home.List.Page.Disabled</t>
+  </si>
+  <si>
+    <t>//span[text()='{0}' and contains(@class, 'disabled btn btn-default')]</t>
+  </si>
+  <si>
+    <t>FunctionPage.Btn.BackToList</t>
+  </si>
+  <si>
+    <t>//a[text()='Back to List']</t>
   </si>
   <si>
     <t>Expected</t>
@@ -212,7 +245,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -243,6 +276,12 @@
       <u val="single"/>
       <sz val="12"/>
       <color indexed="11"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="18"/>
       <name val="Times"/>
     </font>
     <font>
@@ -296,12 +335,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="18"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="19"/>
         <bgColor auto="1"/>
       </patternFill>
@@ -314,7 +347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="23"/>
+        <fgColor indexed="21"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -506,13 +545,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="21"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="21"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="21"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
         <color indexed="14"/>
@@ -521,13 +560,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="21"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="21"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="21"/>
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
         <color indexed="22"/>
@@ -536,37 +590,37 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="21"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="21"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="21"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="21"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="21"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="21"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
         <color indexed="22"/>
@@ -575,7 +629,7 @@
         <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="21"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,43 +638,13 @@
         <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="21"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="21"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="21"/>
-      </left>
-      <right style="thin">
-        <color indexed="21"/>
-      </right>
-      <top style="thin">
-        <color indexed="21"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="21"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="21"/>
-      </left>
-      <right style="thin">
         <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="21"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color indexed="21"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,13 +653,28 @@
         <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="21"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="21"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color indexed="21"/>
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,8 +736,8 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -733,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -786,6 +825,7 @@
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff0000ee"/>
       <rgbColor rgb="ffcacaca"/>
       <rgbColor rgb="ffe6e6e6"/>
       <rgbColor rgb="ffbdc0bf"/>
@@ -1898,7 +1938,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1909,12 +1949,12 @@
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1925,7 +1965,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1945,7 +1985,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1980,20 +2020,30 @@
       <c r="E2" s="15"/>
     </row>
     <row r="3" ht="16.55" customHeight="1">
-      <c r="A3" t="s" s="16">
+      <c r="A3" t="s" s="11">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="17">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" ht="16.55" customHeight="1">
+      <c r="A4" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="17">
+        <v>12</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display="http://www.tanklib.franklidev.com/"/>
-    <hyperlink ref="B3" r:id="rId2" location="" tooltip="" display="http://www.tanklib.franklidev.com/"/>
+    <hyperlink ref="B4" r:id="rId1" location="" tooltip="" display="http://www.tanklib.franklidev.com/Page"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2005,7 +2055,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2020,13 +2070,13 @@
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
       <c r="A1" t="s" s="22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s" s="22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s" s="22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
@@ -2035,13 +2085,13 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s" s="24">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s" s="24">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -2050,13 +2100,13 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s" s="22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -2065,13 +2115,13 @@
     </row>
     <row r="4" ht="20.25" customHeight="1">
       <c r="A4" t="s" s="24">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="24">
         <v>21</v>
       </c>
-      <c r="B4" t="s" s="24">
-        <v>19</v>
-      </c>
       <c r="C4" t="s" s="24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -2080,13 +2130,13 @@
     </row>
     <row r="5" ht="20.25" customHeight="1">
       <c r="A5" t="s" s="22">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s" s="22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s" s="22">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -2095,13 +2145,13 @@
     </row>
     <row r="6" ht="20.25" customHeight="1">
       <c r="A6" t="s" s="24">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s" s="24">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s" s="24">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -2110,13 +2160,13 @@
     </row>
     <row r="7" ht="20.25" customHeight="1">
       <c r="A7" t="s" s="22">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s" s="22">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s" s="22">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -2125,13 +2175,13 @@
     </row>
     <row r="8" ht="20.25" customHeight="1">
       <c r="A8" t="s" s="24">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s" s="24">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s" s="24">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -2140,13 +2190,13 @@
     </row>
     <row r="9" ht="20.25" customHeight="1">
       <c r="A9" t="s" s="22">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s" s="22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s" s="22">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -2155,13 +2205,13 @@
     </row>
     <row r="10" ht="20.25" customHeight="1">
       <c r="A10" t="s" s="24">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s" s="24">
         <v>34</v>
       </c>
-      <c r="B10" t="s" s="24">
-        <v>32</v>
-      </c>
       <c r="C10" t="s" s="24">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -2170,13 +2220,13 @@
     </row>
     <row r="11" ht="20.25" customHeight="1">
       <c r="A11" t="s" s="22">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s" s="22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s" s="22">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -2185,13 +2235,13 @@
     </row>
     <row r="12" ht="20.25" customHeight="1">
       <c r="A12" t="s" s="24">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s" s="24">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s" s="24">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -2200,13 +2250,13 @@
     </row>
     <row r="13" ht="20.25" customHeight="1">
       <c r="A13" t="s" s="22">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s" s="22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s" s="22">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -2215,13 +2265,13 @@
     </row>
     <row r="14" ht="20.25" customHeight="1">
       <c r="A14" t="s" s="24">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s" s="24">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s" s="24">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -2230,13 +2280,13 @@
     </row>
     <row r="15" ht="20.25" customHeight="1">
       <c r="A15" t="s" s="22">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s" s="22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s" s="22">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -2245,13 +2295,13 @@
     </row>
     <row r="16" ht="20.25" customHeight="1">
       <c r="A16" t="s" s="24">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s" s="24">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s" s="24">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -2260,18 +2310,63 @@
     </row>
     <row r="17" ht="20.25" customHeight="1">
       <c r="A17" t="s" s="22">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s" s="22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s" s="22">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
+    </row>
+    <row r="18" ht="20.25" customHeight="1">
+      <c r="A18" t="s" s="24">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s" s="24">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s" s="24">
+        <v>54</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" ht="20.25" customHeight="1">
+      <c r="A19" t="s" s="22">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s" s="22">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s" s="22">
+        <v>56</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" ht="20.25" customHeight="1">
+      <c r="A20" t="s" s="24">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s" s="24">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s" s="24">
+        <v>58</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -2303,10 +2398,10 @@
   <sheetData>
     <row r="1" ht="14.35" customHeight="1">
       <c r="A1" t="s" s="27">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s" s="27">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -2314,10 +2409,10 @@
     </row>
     <row r="2" ht="14.7" customHeight="1">
       <c r="A2" t="s" s="29">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s" s="30">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32"/>

--- a/TestOnTankLibrary/Data/Location.xlsx
+++ b/TestOnTankLibrary/Data/Location.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -100,7 +100,7 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Home.AddTank</t>
+    <t>Home.AddTank.Add</t>
   </si>
   <si>
     <t>CssSelector</t>
@@ -224,6 +224,24 @@
   </si>
   <si>
     <t>//a[text()='Back to List']</t>
+  </si>
+  <si>
+    <t>Home.AddTank.ResetData</t>
+  </si>
+  <si>
+    <t>//div[@id='ResetData']//a[text()='Reset Data']</t>
+  </si>
+  <si>
+    <t>Home.AddTank.ResetModal</t>
+  </si>
+  <si>
+    <t>//div[@id='ResetData']</t>
+  </si>
+  <si>
+    <t>Home.AddTank.CloseModal</t>
+  </si>
+  <si>
+    <t>//div[@id='ResetData']//a[text()='Close']</t>
   </si>
   <si>
     <t>Expected</t>
@@ -1954,7 +1972,7 @@
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1965,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2055,7 +2073,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2367,6 +2385,51 @@
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
+    </row>
+    <row r="21" ht="20.25" customHeight="1">
+      <c r="A21" t="s" s="22">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s" s="22">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s" s="22">
+        <v>60</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" ht="20.25" customHeight="1">
+      <c r="A22" t="s" s="24">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s" s="24">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s" s="24">
+        <v>62</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" ht="20.25" customHeight="1">
+      <c r="A23" t="s" s="22">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s" s="22">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s" s="22">
+        <v>64</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -2401,7 +2464,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s" s="27">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -2409,10 +2472,10 @@
     </row>
     <row r="2" ht="14.7" customHeight="1">
       <c r="A2" t="s" s="29">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s" s="30">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32"/>
